--- a/config_5.11/fish_hall_config.xlsx
+++ b/config_5.11/fish_hall_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_5.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -506,7 +506,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -587,10 +587,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="2">
-        <v>20001</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>499999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -622,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="K3" s="2">
-        <v>9999999</v>
+        <v>5999999</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="2">
-        <v>10000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
